--- a/workbooks/daily_calories.xlsx
+++ b/workbooks/daily_calories.xlsx
@@ -2,23 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\Google data analytics\course 8\week 2\case study 2\Fitabase Data 4.12.16-5.12.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GDAC-Capstone-Project\workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C402506C-D002-4160-BEFA-81F85D223ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A1ACFC-780D-4AA2-AC72-B20272E8F2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_stats" sheetId="2" r:id="rId1"/>
-    <sheet name="dailyCalories_merged" sheetId="1" r:id="rId2"/>
+    <sheet name="daily_calories" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="7" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,16 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>ActivityDay</t>
-  </si>
-  <si>
-    <t>Calories</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>Column Labels</t>
   </si>
@@ -81,22 +72,40 @@
     <t>day_of_week</t>
   </si>
   <si>
-    <t>Average of Calories</t>
+    <t>id</t>
   </si>
   <si>
-    <t>Total Average of Calories</t>
+    <t>activity_day</t>
   </si>
   <si>
-    <t>Total Min of Calories</t>
+    <t>calories</t>
   </si>
   <si>
-    <t>Min of Calories</t>
+    <t>Total average_calories</t>
   </si>
   <si>
-    <t>Total Max of Calories</t>
+    <t>average_calories</t>
   </si>
   <si>
-    <t>Max of Calories</t>
+    <t>Total minimum_calories</t>
+  </si>
+  <si>
+    <t>minimum_calories</t>
+  </si>
+  <si>
+    <t>Total maximum_calories</t>
+  </si>
+  <si>
+    <t>maximum_calories</t>
+  </si>
+  <si>
+    <t>Total average calories burnt</t>
+  </si>
+  <si>
+    <t>Total minimum calories burnt</t>
+  </si>
+  <si>
+    <t>Total maximum calories burnt</t>
   </si>
 </sst>
 </file>
@@ -6368,7 +6377,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable10" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable10" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:Y39" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -6617,9 +6626,9 @@
     </i>
   </colItems>
   <dataFields count="3">
-    <dataField name="Average of Calories" fld="3" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Min of Calories" fld="3" subtotal="min" baseField="0" baseItem="2"/>
-    <dataField name="Max of Calories" fld="3" subtotal="max" baseField="0" baseItem="2"/>
+    <dataField name="average_calories" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="minimum_calories" fld="3" subtotal="min" baseField="0" baseItem="0"/>
+    <dataField name="maximum_calories" fld="3" subtotal="max" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -6637,12 +6646,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D941" totalsRowShown="0">
   <autoFilter ref="A1:D941" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ActivityDay" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="activity_day" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="day_of_week" dataDxfId="0">
       <calculatedColumnFormula>TEXT(B2, "ddd")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Calories"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="calories"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6947,68 +6956,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:Y40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="S29" workbookViewId="0">
+      <selection activeCell="AB42" sqref="AB42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.6328125" customWidth="1"/>
+    <col min="24" max="24" width="26" customWidth="1"/>
+    <col min="25" max="25" width="26.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="N4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
+      <c r="Q4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" t="s">
+      <c r="T4" t="s">
         <v>9</v>
       </c>
-      <c r="N4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>11</v>
-      </c>
-      <c r="T4" t="s">
-        <v>12</v>
-      </c>
       <c r="W4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X4" t="s">
         <v>16</v>
@@ -7019,10 +7028,10 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -7031,7 +7040,7 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -7040,7 +7049,7 @@
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
@@ -7049,7 +7058,7 @@
         <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
@@ -7058,7 +7067,7 @@
         <v>19</v>
       </c>
       <c r="N5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O5" t="s">
         <v>17</v>
@@ -7067,7 +7076,7 @@
         <v>19</v>
       </c>
       <c r="Q5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R5" t="s">
         <v>17</v>
@@ -7076,7 +7085,7 @@
         <v>19</v>
       </c>
       <c r="T5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U5" t="s">
         <v>17</v>
@@ -9610,7 +9619,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B39" s="4">
         <v>2324.2083333333335</v>
@@ -9689,6 +9698,15 @@
       <c r="I40">
         <f>COUNTIF(W6:W38, "&gt;=1600")</f>
         <v>29</v>
+      </c>
+      <c r="W40" t="s">
+        <v>20</v>
+      </c>
+      <c r="X40" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -9701,7 +9719,7 @@
   <dimension ref="A1:D941"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9714,16 +9732,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
